--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value485.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value485.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9889839745659684</v>
+        <v>1.233906149864197</v>
       </c>
       <c r="B1">
-        <v>1.747074469190132</v>
+        <v>3.183047533035278</v>
       </c>
       <c r="C1">
-        <v>4.094846765837528</v>
+        <v>6.304697036743164</v>
       </c>
       <c r="D1">
-        <v>2.476074922750994</v>
+        <v>1.816049814224243</v>
       </c>
       <c r="E1">
-        <v>1.04225675185989</v>
+        <v>1.068257331848145</v>
       </c>
     </row>
   </sheetData>
